--- a/medicine/Psychotrope/Dr._Funk/Dr._Funk.xlsx
+++ b/medicine/Psychotrope/Dr._Funk/Dr._Funk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dr Funk est le nom d'un cocktail alcoolisé mis au point au XIXe siècle par le médecin tropical allemand Bernhard Funk à Samoa en tant que médicament tropical[réf. nécessaire].
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs versions légèrement différentes ont survécu : L'absinthe, le rhum et le sirop de grenade, ainsi que des citrons et du jus de citron vert sont les éléments de base[réf. nécessaire]. Bernhard Funk a partagé la recette avec des amis en Polynésie française, et le cocktail s'est répandu dans toute la région océanique, à commencer par Tahiti[réf. souhaitée]. La boisson est ainsi devenue le modèle des « cocktails des mers du Sud » qui ont vu le jour dans les années 1920 et sont devenus populaires dans les années 1950. Elle est donc considérée comme la « mère de tous les cocktails »[Par qui ?][réf. nécessaire]. Parmi les cocktails actuellement populaires, le « Zombie » est celui qui lui ressemble le plus dans sa composition[Interprétation personnelle ?]. 
-Le Dr Funk est le seul cocktail à avoir été créé en Océanie (Polynésie)[réf. souhaitée]. Traditionnellement, il est servi dans un verre de bière Pilsner. Cependant, dans le cadre de la mode Tiki, des récipients imaginatifs ont été et sont encore utilisés. Grâce à diverses expositions et publications, la boisson a récemment regagné en popularité[1],[2].
+Le Dr Funk est le seul cocktail à avoir été créé en Océanie (Polynésie)[réf. souhaitée]. Traditionnellement, il est servi dans un verre de bière Pilsner. Cependant, dans le cadre de la mode Tiki, des récipients imaginatifs ont été et sont encore utilisés. Grâce à diverses expositions et publications, la boisson a récemment regagné en popularité,.
 </t>
         </is>
       </c>
